--- a/docs/DB_구분코드_디스크립션.xlsx
+++ b/docs/DB_구분코드_디스크립션.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gary\Documents\크몽\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PLAYGROUND\hkdevstudio\siglePage\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA45224D-C839-45BC-83DF-5C20FAE3516A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12770" windowHeight="4650"/>
+    <workbookView xWindow="1830" yWindow="1830" windowWidth="17280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
   <si>
     <t>S1</t>
   </si>
@@ -1314,25 +1315,50 @@
   </si>
   <si>
     <t>디스크립션4</t>
+  </si>
+  <si>
+    <t>디스크립션5</t>
+  </si>
+  <si>
+    <t>디스크립션6</t>
+  </si>
+  <si>
+    <t>디스크립션7</t>
+  </si>
+  <si>
+    <t>디스크립션8</t>
+  </si>
+  <si>
+    <t>디스크립션9</t>
+  </si>
+  <si>
+    <t>디스크립션10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1396,7 +1422,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1673,21 +1699,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="52" zoomScaleNormal="52" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.90625" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="18.8984375" defaultRowHeight="31.5" customHeight="1" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="18.90625" style="4"/>
-    <col min="2" max="5" width="112.6328125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="18.90625" style="1"/>
+    <col min="1" max="1" width="18.8984375" style="4"/>
+    <col min="2" max="5" width="112.6484375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="18.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A1" s="2" t="s">
         <v>85</v>
       </c>
@@ -1703,8 +1729,26 @@
       <c r="E1" s="5" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="F1" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1765,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1782,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1755,7 +1799,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1772,7 +1816,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1833,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1806,7 +1850,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1823,7 +1867,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1840,7 +1884,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1857,7 +1901,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1874,7 +1918,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1891,7 +1935,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1908,7 +1952,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1925,7 +1969,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1942,7 +1986,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1959,7 +2003,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
@@ -1976,7 +2020,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1993,7 +2037,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="3" t="s">
         <v>40</v>
       </c>
@@ -2010,7 +2054,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -2027,7 +2071,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
@@ -2044,7 +2088,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -2061,7 +2105,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -2078,7 +2122,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A24" s="3" t="s">
         <v>65</v>
       </c>
@@ -2095,7 +2139,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
@@ -2112,7 +2156,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2173,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2190,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -2163,7 +2207,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -2180,7 +2224,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A30" s="3" t="s">
         <v>36</v>
       </c>
@@ -2197,7 +2241,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
@@ -2214,7 +2258,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A32" s="3" t="s">
         <v>46</v>
       </c>
@@ -2231,7 +2275,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A33" s="3" t="s">
         <v>51</v>
       </c>
@@ -2248,7 +2292,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -2265,7 +2309,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
@@ -2282,7 +2326,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A36" s="3" t="s">
         <v>66</v>
       </c>
@@ -2299,7 +2343,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -2316,7 +2360,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A38" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,7 +2377,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -2350,7 +2394,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
@@ -2367,7 +2411,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
@@ -2384,7 +2428,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
@@ -2401,7 +2445,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2418,7 +2462,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
@@ -2435,7 +2479,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A45" s="3" t="s">
         <v>52</v>
       </c>
@@ -2452,7 +2496,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
@@ -2469,7 +2513,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A47" s="3" t="s">
         <v>62</v>
       </c>
@@ -2486,7 +2530,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A48" s="3" t="s">
         <v>67</v>
       </c>
@@ -2503,7 +2547,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A49" s="3" t="s">
         <v>72</v>
       </c>
@@ -2520,7 +2564,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A50" s="3" t="s">
         <v>1</v>
       </c>
@@ -2537,7 +2581,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
@@ -2554,7 +2598,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A52" s="3" t="s">
         <v>28</v>
       </c>
@@ -2571,7 +2615,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A53" s="3" t="s">
         <v>33</v>
       </c>
@@ -2588,7 +2632,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A54" s="3" t="s">
         <v>38</v>
       </c>
@@ -2605,7 +2649,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A55" s="3" t="s">
         <v>43</v>
       </c>
@@ -2622,7 +2666,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A56" s="3" t="s">
         <v>48</v>
       </c>
@@ -2639,7 +2683,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
@@ -2656,7 +2700,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A58" s="3" t="s">
         <v>58</v>
       </c>
@@ -2673,7 +2717,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A59" s="3" t="s">
         <v>63</v>
       </c>
@@ -2690,7 +2734,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A60" s="3" t="s">
         <v>68</v>
       </c>
@@ -2707,7 +2751,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A61" s="3" t="s">
         <v>73</v>
       </c>
@@ -2724,7 +2768,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2741,7 +2785,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A63" s="3" t="s">
         <v>24</v>
       </c>
@@ -2758,7 +2802,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A64" s="3" t="s">
         <v>29</v>
       </c>
@@ -2775,7 +2819,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A65" s="3" t="s">
         <v>34</v>
       </c>
@@ -2792,7 +2836,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A66" s="3" t="s">
         <v>39</v>
       </c>
@@ -2809,7 +2853,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A67" s="3" t="s">
         <v>44</v>
       </c>
@@ -2826,7 +2870,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A68" s="3" t="s">
         <v>49</v>
       </c>
@@ -2843,7 +2887,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A69" s="3" t="s">
         <v>54</v>
       </c>
@@ -2860,7 +2904,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A70" s="3" t="s">
         <v>59</v>
       </c>
@@ -2877,7 +2921,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A71" s="3" t="s">
         <v>64</v>
       </c>
@@ -2894,7 +2938,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A72" s="3" t="s">
         <v>69</v>
       </c>
@@ -2911,7 +2955,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
@@ -2928,7 +2972,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A74" s="3" t="s">
         <v>6</v>
       </c>
@@ -2945,7 +2989,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A75" s="3" t="s">
         <v>7</v>
       </c>
@@ -2962,7 +3006,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A76" s="3" t="s">
         <v>76</v>
       </c>
@@ -2979,7 +3023,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -2996,7 +3040,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -3013,7 +3057,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -3030,7 +3074,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -3047,7 +3091,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
@@ -3064,7 +3108,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A82" s="3" t="s">
         <v>8</v>
       </c>
@@ -3081,7 +3125,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -3098,7 +3142,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -3115,7 +3159,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -3132,7 +3176,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -3150,6 +3194,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
